--- a/data/nzd0203/nzd0203.xlsx
+++ b/data/nzd0203/nzd0203.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K669"/>
+  <dimension ref="A1:K680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24210,6 +24210,431 @@
         <v>395.125</v>
       </c>
       <c r="K669" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>366.6357142857143</v>
+      </c>
+      <c r="C670" t="n">
+        <v>360.4157142857143</v>
+      </c>
+      <c r="D670" t="n">
+        <v>375.865</v>
+      </c>
+      <c r="E670" t="n">
+        <v>381.4033333333334</v>
+      </c>
+      <c r="F670" t="n">
+        <v>378.6092307692308</v>
+      </c>
+      <c r="G670" t="n">
+        <v>374.6733333333333</v>
+      </c>
+      <c r="H670" t="n">
+        <v>369.6733333333333</v>
+      </c>
+      <c r="I670" t="n">
+        <v>365.8933333333334</v>
+      </c>
+      <c r="J670" t="n">
+        <v>360.595</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-28 22:00:03+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>369.4414285714286</v>
+      </c>
+      <c r="C671" t="n">
+        <v>363.7414285714286</v>
+      </c>
+      <c r="D671" t="n">
+        <v>379.68</v>
+      </c>
+      <c r="E671" t="n">
+        <v>384.1433333333333</v>
+      </c>
+      <c r="F671" t="n">
+        <v>384.5638461538462</v>
+      </c>
+      <c r="G671" t="n">
+        <v>376.6933333333333</v>
+      </c>
+      <c r="H671" t="n">
+        <v>372.4433333333333</v>
+      </c>
+      <c r="I671" t="n">
+        <v>367.7033333333333</v>
+      </c>
+      <c r="J671" t="n">
+        <v>364.86</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>348.7542857142857</v>
+      </c>
+      <c r="C672" t="n">
+        <v>349.3242857142857</v>
+      </c>
+      <c r="D672" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="E672" t="n">
+        <v>369.5233333333333</v>
+      </c>
+      <c r="F672" t="n">
+        <v>373.2553846153846</v>
+      </c>
+      <c r="G672" t="n">
+        <v>370.1133333333333</v>
+      </c>
+      <c r="H672" t="n">
+        <v>373.4333333333333</v>
+      </c>
+      <c r="I672" t="n">
+        <v>373.8133333333333</v>
+      </c>
+      <c r="J672" t="n">
+        <v>359.24</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>364.4742857142857</v>
+      </c>
+      <c r="C673" t="n">
+        <v>351.5142857142857</v>
+      </c>
+      <c r="D673" t="n">
+        <v>357.73</v>
+      </c>
+      <c r="E673" t="n">
+        <v>373.9066666666666</v>
+      </c>
+      <c r="F673" t="n">
+        <v>371.6469230769231</v>
+      </c>
+      <c r="G673" t="n">
+        <v>372.6166666666667</v>
+      </c>
+      <c r="H673" t="n">
+        <v>367.9466666666667</v>
+      </c>
+      <c r="I673" t="n">
+        <v>371.1266666666667</v>
+      </c>
+      <c r="J673" t="n">
+        <v>365.21</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>359.4328571428572</v>
+      </c>
+      <c r="C674" t="n">
+        <v>362.1128571428572</v>
+      </c>
+      <c r="D674" t="n">
+        <v>367.68</v>
+      </c>
+      <c r="E674" t="n">
+        <v>375.3633333333333</v>
+      </c>
+      <c r="F674" t="n">
+        <v>374.7146153846153</v>
+      </c>
+      <c r="G674" t="n">
+        <v>368.2933333333334</v>
+      </c>
+      <c r="H674" t="n">
+        <v>365.3633333333333</v>
+      </c>
+      <c r="I674" t="n">
+        <v>369.0233333333333</v>
+      </c>
+      <c r="J674" t="n">
+        <v>363.46</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>368.8228571428572</v>
+      </c>
+      <c r="C675" t="n">
+        <v>359.9728571428572</v>
+      </c>
+      <c r="D675" t="n">
+        <v>363.2</v>
+      </c>
+      <c r="E675" t="n">
+        <v>371.9733333333333</v>
+      </c>
+      <c r="F675" t="n">
+        <v>366.7130769230769</v>
+      </c>
+      <c r="G675" t="n">
+        <v>367.6433333333333</v>
+      </c>
+      <c r="H675" t="n">
+        <v>358.7533333333333</v>
+      </c>
+      <c r="I675" t="n">
+        <v>365.6133333333333</v>
+      </c>
+      <c r="J675" t="n">
+        <v>360.33</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>380.2285714285715</v>
+      </c>
+      <c r="C676" t="n">
+        <v>372.1785714285714</v>
+      </c>
+      <c r="D676" t="n">
+        <v>377.395</v>
+      </c>
+      <c r="E676" t="n">
+        <v>381.01</v>
+      </c>
+      <c r="F676" t="n">
+        <v>383.6530769230769</v>
+      </c>
+      <c r="G676" t="n">
+        <v>374.68</v>
+      </c>
+      <c r="H676" t="n">
+        <v>371.67</v>
+      </c>
+      <c r="I676" t="n">
+        <v>378.72</v>
+      </c>
+      <c r="J676" t="n">
+        <v>374.415</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>359.0385714285715</v>
+      </c>
+      <c r="C677" t="n">
+        <v>360.6185714285714</v>
+      </c>
+      <c r="D677" t="n">
+        <v>365.785</v>
+      </c>
+      <c r="E677" t="n">
+        <v>368.3233333333333</v>
+      </c>
+      <c r="F677" t="n">
+        <v>374.2692307692308</v>
+      </c>
+      <c r="G677" t="n">
+        <v>374.2133333333333</v>
+      </c>
+      <c r="H677" t="n">
+        <v>362.8433333333333</v>
+      </c>
+      <c r="I677" t="n">
+        <v>371.8333333333333</v>
+      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>379.1557142857143</v>
+      </c>
+      <c r="C678" t="n">
+        <v>368.6057142857143</v>
+      </c>
+      <c r="D678" t="n">
+        <v>374.46</v>
+      </c>
+      <c r="E678" t="n">
+        <v>381.7466666666666</v>
+      </c>
+      <c r="F678" t="n">
+        <v>375.4792307692308</v>
+      </c>
+      <c r="G678" t="n">
+        <v>378.3266666666667</v>
+      </c>
+      <c r="H678" t="n">
+        <v>375.4466666666667</v>
+      </c>
+      <c r="I678" t="n">
+        <v>374.0066666666667</v>
+      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>371.5728571428572</v>
+      </c>
+      <c r="C679" t="n">
+        <v>372.7128571428572</v>
+      </c>
+      <c r="D679" t="n">
+        <v>380.545</v>
+      </c>
+      <c r="E679" t="n">
+        <v>382.4433333333334</v>
+      </c>
+      <c r="F679" t="n">
+        <v>376.9723076923077</v>
+      </c>
+      <c r="G679" t="n">
+        <v>373.6633333333334</v>
+      </c>
+      <c r="H679" t="n">
+        <v>371.3833333333334</v>
+      </c>
+      <c r="I679" t="n">
+        <v>369.0433333333334</v>
+      </c>
+      <c r="J679" t="n">
+        <v>372.345</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>368.8457142857143</v>
+      </c>
+      <c r="C680" t="n">
+        <v>361.9357142857143</v>
+      </c>
+      <c r="D680" t="n">
+        <v>374.415</v>
+      </c>
+      <c r="E680" t="n">
+        <v>372.5033333333333</v>
+      </c>
+      <c r="F680" t="n">
+        <v>371.8492307692308</v>
+      </c>
+      <c r="G680" t="n">
+        <v>379.9733333333334</v>
+      </c>
+      <c r="H680" t="n">
+        <v>372.4033333333334</v>
+      </c>
+      <c r="I680" t="n">
+        <v>369.3233333333333</v>
+      </c>
+      <c r="J680" t="n">
+        <v>366.595</v>
+      </c>
+      <c r="K680" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24226,7 +24651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B680"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31034,6 +31459,116 @@
       </c>
       <c r="B680" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-11-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -31196,28 +31731,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.2526107439731684</v>
+        <v>0.2332392347940354</v>
       </c>
       <c r="J2" t="n">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="K2" t="n">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02334176352143391</v>
+        <v>0.0205295796358651</v>
       </c>
       <c r="M2" t="n">
-        <v>9.222697260138757</v>
+        <v>9.190879705662836</v>
       </c>
       <c r="N2" t="n">
-        <v>142.8074435413451</v>
+        <v>141.8574448868767</v>
       </c>
       <c r="O2" t="n">
-        <v>11.95020684094401</v>
+        <v>11.91039230617013</v>
       </c>
       <c r="P2" t="n">
-        <v>365.4983633373639</v>
+        <v>365.6850132157396</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -31273,28 +31808,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02463213712534298</v>
+        <v>-0.01412791620468869</v>
       </c>
       <c r="J3" t="n">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="K3" t="n">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002052874065778809</v>
+        <v>6.908798455684817e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>10.00962560419865</v>
+        <v>10.03343431457439</v>
       </c>
       <c r="N3" t="n">
-        <v>155.7643765961602</v>
+        <v>155.5137991597964</v>
       </c>
       <c r="O3" t="n">
-        <v>12.48055994722032</v>
+        <v>12.47051719696486</v>
       </c>
       <c r="P3" t="n">
-        <v>371.480785859238</v>
+        <v>371.8598146757541</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -31350,28 +31885,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03883763491168472</v>
+        <v>0.02015229357125537</v>
       </c>
       <c r="J4" t="n">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="K4" t="n">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004982635648862477</v>
+        <v>0.0001384497697515252</v>
       </c>
       <c r="M4" t="n">
-        <v>9.981460579401189</v>
+        <v>9.921859354683384</v>
       </c>
       <c r="N4" t="n">
-        <v>159.5238000310545</v>
+        <v>157.839131444235</v>
       </c>
       <c r="O4" t="n">
-        <v>12.63027315742041</v>
+        <v>12.56340445278409</v>
       </c>
       <c r="P4" t="n">
-        <v>374.7093348342605</v>
+        <v>374.8925649552417</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -31427,28 +31962,28 @@
         <v>0.0859</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0921800444146483</v>
+        <v>0.08393917149892074</v>
       </c>
       <c r="J5" t="n">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="K5" t="n">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002991104179466131</v>
+        <v>0.002572436087511565</v>
       </c>
       <c r="M5" t="n">
-        <v>9.889522593312332</v>
+        <v>9.796044609749694</v>
       </c>
       <c r="N5" t="n">
-        <v>151.6999997408461</v>
+        <v>149.3019307741592</v>
       </c>
       <c r="O5" t="n">
-        <v>12.31665537964127</v>
+        <v>12.21891692312208</v>
       </c>
       <c r="P5" t="n">
-        <v>376.3997709851643</v>
+        <v>376.4799817719619</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -31504,28 +32039,28 @@
         <v>0.0751</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09998398039333854</v>
+        <v>-0.0866701981440354</v>
       </c>
       <c r="J6" t="n">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="K6" t="n">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003771308199130741</v>
+        <v>0.002937824960055235</v>
       </c>
       <c r="M6" t="n">
-        <v>9.452598380374276</v>
+        <v>9.356827559121827</v>
       </c>
       <c r="N6" t="n">
-        <v>140.3980558428554</v>
+        <v>138.3573994276007</v>
       </c>
       <c r="O6" t="n">
-        <v>11.84896855607506</v>
+        <v>11.76254221788813</v>
       </c>
       <c r="P6" t="n">
-        <v>374.5857383911472</v>
+        <v>374.4566178487772</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -31581,28 +32116,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1914281383764534</v>
+        <v>-0.1570897597888177</v>
       </c>
       <c r="J7" t="n">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="K7" t="n">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0134974689064753</v>
+        <v>0.009362357014212952</v>
       </c>
       <c r="M7" t="n">
-        <v>9.508128074226221</v>
+        <v>9.486990137417477</v>
       </c>
       <c r="N7" t="n">
-        <v>140.7200940226883</v>
+        <v>139.8462011146781</v>
       </c>
       <c r="O7" t="n">
-        <v>11.8625500640751</v>
+        <v>11.82565859116008</v>
       </c>
       <c r="P7" t="n">
-        <v>369.2429080253033</v>
+        <v>368.9032630540975</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -31658,28 +32193,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2007702324858933</v>
+        <v>-0.1642482426535579</v>
       </c>
       <c r="J8" t="n">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="K8" t="n">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01418358079839821</v>
+        <v>0.009762006358208897</v>
       </c>
       <c r="M8" t="n">
-        <v>9.741819330202588</v>
+        <v>9.723653599237682</v>
       </c>
       <c r="N8" t="n">
-        <v>147.904398601064</v>
+        <v>147.2633700285335</v>
       </c>
       <c r="O8" t="n">
-        <v>12.161595232578</v>
+        <v>12.13521198943527</v>
       </c>
       <c r="P8" t="n">
-        <v>364.4151245566869</v>
+        <v>364.0549530738135</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -31735,28 +32270,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.319283373319993</v>
+        <v>-0.2809960726939699</v>
       </c>
       <c r="J9" t="n">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="K9" t="n">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03253211010160828</v>
+        <v>0.02600679439440123</v>
       </c>
       <c r="M9" t="n">
-        <v>10.00832841285271</v>
+        <v>10.00183827647207</v>
       </c>
       <c r="N9" t="n">
-        <v>159.1872930674973</v>
+        <v>158.3179027567459</v>
       </c>
       <c r="O9" t="n">
-        <v>12.61694468036922</v>
+        <v>12.58244422823904</v>
       </c>
       <c r="P9" t="n">
-        <v>368.2948606694666</v>
+        <v>367.9166023546732</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -31812,28 +32347,28 @@
         <v>0.094</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03435104062294943</v>
+        <v>-0.04626086661625099</v>
       </c>
       <c r="J10" t="n">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="K10" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002019709677246739</v>
+        <v>0.0003663072324860961</v>
       </c>
       <c r="M10" t="n">
-        <v>14.383166218594</v>
+        <v>14.56422990675127</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7293250921438</v>
+        <v>306.9927366498484</v>
       </c>
       <c r="O10" t="n">
-        <v>17.37035765584992</v>
+        <v>17.5212081960648</v>
       </c>
       <c r="P10" t="n">
-        <v>389.3846485448498</v>
+        <v>390.183802867452</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -31870,7 +32405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K669"/>
+  <dimension ref="A1:K680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65351,6 +65886,625 @@
         </is>
       </c>
     </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>-37.38129616166427,175.9375015477865</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>-37.38200526943603,175.93763323542157</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>-37.38264210151421,175.93804932482007</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>-37.383281065253136,175.93840837224224</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>-37.38392355204898,175.93876046158056</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>-37.38456958656758,175.93913642304295</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>-37.38522399784309,175.9395116092374</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>-37.38588507839093,175.9398328935462</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>-37.38649346486602,175.9402943816362</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-28 22:00:03+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>-37.381290038795186,175.9375322700547</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>-37.38199713623836,175.93766936025642</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>-37.3826307175142,175.9380899504916</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>-37.383271039149456,175.93843662985498</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>-37.38389856020494,175.93881992524834</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>-37.384560767719734,175.93915636444305</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>-37.385212625534855,175.93953943636117</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>-37.38587678781983,175.93985048346974</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>-37.38647085031654,175.94033329354755</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>-37.381335183860266,175.93730574794668</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>-37.38203239399194,175.9375127571739</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>-37.3826819827081,175.93790700175455</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>-37.38332453602212,175.93828585374231</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>-37.383946022407706,175.93870699724795</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>-37.38458949445004,175.93909140679523</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>-37.38520856106216,175.93954938179317</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>-37.385848801398666,175.93990986158</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>-37.386500649556275,175.94028201923032</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>-37.38130087851279,175.93747788037345</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>-37.38202703826411,175.93753654558347</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>-37.38269621636015,175.93785620627804</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>-37.38330849673738,175.93833105909837</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>-37.383952773196356,175.93869093489673</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>-37.384578565490266,175.93911611966527</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>-37.3852310867156,175.93949426332432</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>-37.38586110748803,175.93988375206195</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>-37.386468994491324,175.94033648678658</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>-37.38131188031797,175.93742267725395</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>-37.382001118991134,175.93765167026106</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>-37.382666525594594,175.93796216327607</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>-37.38330316656836,175.93834608171034</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>-37.38393989794584,175.93872156935453</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>-37.384597440135444,175.9390734397772</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>-37.385241692649686,175.93946831142097</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>-37.38587074165593,175.93986331147778</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>-37.38647827361663,175.94032052058984</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>-37.381291388695196,175.9375254967649</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>-37.38200635246412,175.93762842498333</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>-37.382679893910414,175.93791445601565</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>-37.383315571100745,175.93831112061682</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>-37.383973480767565,175.93864166471036</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>-37.384600277879606,175.93906702298412</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>-37.38526883013124,175.93940190800006</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>-37.385886360909986,175.9398301724527</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>-37.386494869990045,175.9402919638965</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>-37.38126649809924,175.93765038805196</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>-37.38197650274286,175.9377610068139</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>-37.38263753597979,175.93806561768596</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>-37.383282504522974,175.93840431579594</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>-37.38390238275468,175.93881083017507</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>-37.38456955746247,175.93913648885615</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>-37.385215800475926,175.93953166753806</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>-37.38582632674006,175.93995754544133</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>-37.3864201862592,175.94042046891548</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>-37.38131274075846,175.93741835986555</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>-37.382004773339226,175.93763543891262</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>-37.38267218027509,175.93794198353308</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>-37.38332892700213,175.938273478128</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>-37.38394176724671,175.9387171216744</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>-37.38457159481962,175.93913188193136</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>-37.385252038562115,175.93944299575048</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>-37.38585787065115,175.9398906195787</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>-37.381268839392,175.93763864039093</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>-37.381985240369346,175.93772219746734</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>-37.38264629404556,175.93803436306877</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>-37.38327980894123,175.9384119130384</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>-37.383936688817506,175.9387292049223</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>-37.384553636965855,175.93917248867393</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>-37.38520029526341,175.93956960751675</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>-37.3858479158486,175.93991174042836</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>-37.381285387404716,175.93755560896355</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>-37.38197519611552,175.93776681036985</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>-37.38262813634326,175.93809916181502</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>-37.383277259725496,175.9384190977604</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>-37.383930422299024,175.938744115018</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>-37.384573995990316,175.93912645234107</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>-37.38521697739361,175.93952878771555</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>-37.38587065004739,175.93986350584152</t>
+        </is>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>-37.38643116215111,175.9404015832101</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>-37.38129133881437,175.9375257470481</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>-37.382001552202695,175.93764974608598</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>-37.382646428325884,175.93803388386675</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>-37.383313631749715,175.9383165865113</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>-37.38395192410159,175.9386929551735</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>-37.384546447999625,175.93918874452797</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>-37.385212789755954,175.93953903452552</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>-37.3858693675276,175.93986622693384</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>-37.386461650725025,175.94034912288802</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0203/nzd0203.xlsx
+++ b/data/nzd0203/nzd0203.xlsx
@@ -31582,7 +31582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31673,35 +31673,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -31754,27 +31759,28 @@
       <c r="P2" t="n">
         <v>365.6850132157396</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.93348687896957 -37.38209619840758, 175.94354103352933 -37.380092336895736)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.9334868789696</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.38209619840758</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.9435410335293</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.38009233689574</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.9385139562494</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.38109426765166</v>
       </c>
     </row>
@@ -31831,27 +31837,28 @@
       <c r="P3" t="n">
         <v>371.8598146757541</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.93371824919456 -37.38288662018044, 175.94369170258543 -37.38064108061784)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.9337182491946</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.38288662018044</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.9436917025854</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.38064108061784</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.93870497589</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.38176385039914</v>
       </c>
     </row>
@@ -31908,27 +31915,28 @@
       <c r="P4" t="n">
         <v>374.8925649552417</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.93404670005197 -37.38376362055702, 175.9438237291067 -37.38102384377184)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.934046700052</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.38376362055702</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.9438237291067</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.38102384377184</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.9389352145793</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.38239373216443</v>
       </c>
     </row>
@@ -31985,27 +31993,28 @@
       <c r="P5" t="n">
         <v>376.4799817719619</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.9344748835844 -37.38467661880426, 175.94394269318934 -37.381317252212405)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.9344748835844</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.38467661880426</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.9439426931893</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.3813172522124</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.9392087883868</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.38299693550833</v>
       </c>
     </row>
@@ -32062,27 +32071,28 @@
       <c r="P6" t="n">
         <v>374.4566178487772</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.93497952979004 -37.38551253732348, 175.9441465472924 -37.38165966192882)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.93497952979</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.38551253732348</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.9441465472924</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.38165966192882</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.9395630385412</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.38358609962615</v>
       </c>
     </row>
@@ -32139,27 +32149,28 @@
       <c r="P7" t="n">
         <v>368.9032630540975</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.9354375716751 -37.38620526776442, 175.9444995170897 -37.382197630164356)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.9354375716751</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.38620526776442</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.9444995170897</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.38219763016436</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.9399685443824</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.38420144896439</v>
       </c>
     </row>
@@ -32216,27 +32227,28 @@
       <c r="P8" t="n">
         <v>364.0549530738135</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.9357978320169 -37.38674164569032, 175.9450197575803 -37.38297275288764)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.9357978320169</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.38674164569032</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.9450197575803</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.38297275288764</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.9404087947986</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.38485719928898</v>
       </c>
     </row>
@@ -32293,27 +32305,28 @@
       <c r="P9" t="n">
         <v>367.9166023546732</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.93627699066343 -37.387560975109324, 175.94519739224214 -37.383356454390665)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.9362769906634</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.38756097510932</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.9451973922421</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.38335645439066</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.9407371914528</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.38545871474999</v>
       </c>
     </row>
@@ -32370,27 +32383,28 @@
       <c r="P10" t="n">
         <v>390.183802867452</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.9370043914769 -37.38840542498122, 175.94537784787332 -37.38353887390689)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.9370043914769</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.38840542498122</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.9453778478733</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.38353887390689</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.9411911196751</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.38597214944406</v>
       </c>
     </row>

--- a/data/nzd0203/nzd0203.xlsx
+++ b/data/nzd0203/nzd0203.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K680"/>
+  <dimension ref="A1:K686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24637,6 +24637,236 @@
       <c r="K680" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:59:42+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>385.0285714285715</v>
+      </c>
+      <c r="C681" t="n">
+        <v>373.5885714285714</v>
+      </c>
+      <c r="D681" t="n">
+        <v>384.355</v>
+      </c>
+      <c r="E681" t="n">
+        <v>389.98</v>
+      </c>
+      <c r="F681" t="n">
+        <v>391.3646153846154</v>
+      </c>
+      <c r="G681" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="H681" t="n">
+        <v>379.3</v>
+      </c>
+      <c r="I681" t="n">
+        <v>386.3200000000001</v>
+      </c>
+      <c r="J681" t="n">
+        <v>393.725</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>376.19</v>
+      </c>
+      <c r="C682" t="n">
+        <v>372.68</v>
+      </c>
+      <c r="D682" t="n">
+        <v>388.65</v>
+      </c>
+      <c r="E682" t="n">
+        <v>382.7000000000001</v>
+      </c>
+      <c r="F682" t="n">
+        <v>378.8815384615385</v>
+      </c>
+      <c r="G682" t="n">
+        <v>381.5100000000001</v>
+      </c>
+      <c r="H682" t="n">
+        <v>380.41</v>
+      </c>
+      <c r="I682" t="n">
+        <v>377.92</v>
+      </c>
+      <c r="J682" t="n">
+        <v>372.06</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>369.5814285714285</v>
+      </c>
+      <c r="C683" t="n">
+        <v>376.2714285714285</v>
+      </c>
+      <c r="D683" t="n">
+        <v>382.445</v>
+      </c>
+      <c r="E683" t="n">
+        <v>385.7833333333333</v>
+      </c>
+      <c r="F683" t="n">
+        <v>380.8030769230769</v>
+      </c>
+      <c r="G683" t="n">
+        <v>378.5233333333333</v>
+      </c>
+      <c r="H683" t="n">
+        <v>367.5633333333333</v>
+      </c>
+      <c r="I683" t="n">
+        <v>373.1633333333333</v>
+      </c>
+      <c r="J683" t="n">
+        <v>375.935</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>362.0985714285715</v>
+      </c>
+      <c r="C684" t="n">
+        <v>361.1585714285715</v>
+      </c>
+      <c r="D684" t="n">
+        <v>372.645</v>
+      </c>
+      <c r="E684" t="n">
+        <v>372.4633333333333</v>
+      </c>
+      <c r="F684" t="n">
+        <v>370.3392307692308</v>
+      </c>
+      <c r="G684" t="n">
+        <v>365.4233333333333</v>
+      </c>
+      <c r="H684" t="n">
+        <v>359.1033333333333</v>
+      </c>
+      <c r="I684" t="n">
+        <v>362.3933333333333</v>
+      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>369.5171428571429</v>
+      </c>
+      <c r="C685" t="n">
+        <v>367.5371428571429</v>
+      </c>
+      <c r="D685" t="n">
+        <v>379.51</v>
+      </c>
+      <c r="E685" t="n">
+        <v>378.3633333333333</v>
+      </c>
+      <c r="F685" t="n">
+        <v>377.0792307692308</v>
+      </c>
+      <c r="G685" t="n">
+        <v>372.1433333333333</v>
+      </c>
+      <c r="H685" t="n">
+        <v>365.2233333333334</v>
+      </c>
+      <c r="I685" t="n">
+        <v>365.0733333333333</v>
+      </c>
+      <c r="J685" t="n">
+        <v>364.05</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>363.4742857142857</v>
+      </c>
+      <c r="C686" t="n">
+        <v>353.5342857142857</v>
+      </c>
+      <c r="D686" t="n">
+        <v>363.235</v>
+      </c>
+      <c r="E686" t="n">
+        <v>365.57</v>
+      </c>
+      <c r="F686" t="n">
+        <v>357.9253846153846</v>
+      </c>
+      <c r="G686" t="n">
+        <v>362.47</v>
+      </c>
+      <c r="H686" t="n">
+        <v>357.32</v>
+      </c>
+      <c r="I686" t="n">
+        <v>354.6</v>
+      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -24651,7 +24881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B691"/>
+  <dimension ref="A1:B697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31569,6 +31799,66 @@
       </c>
       <c r="B691" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-03-20 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-04-21 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -31736,28 +32026,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.2332392347940354</v>
+        <v>0.2317779266594954</v>
       </c>
       <c r="J2" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="K2" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0205295796358651</v>
+        <v>0.02063731184727291</v>
       </c>
       <c r="M2" t="n">
-        <v>9.190879705662836</v>
+        <v>9.162168659093878</v>
       </c>
       <c r="N2" t="n">
-        <v>141.8574448868767</v>
+        <v>140.9544711315343</v>
       </c>
       <c r="O2" t="n">
-        <v>11.91039230617013</v>
+        <v>11.87242482105211</v>
       </c>
       <c r="P2" t="n">
-        <v>365.6850132157396</v>
+        <v>365.6996143821685</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31814,28 +32104,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01412791620468869</v>
+        <v>-0.02264895280367533</v>
       </c>
       <c r="J3" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="K3" t="n">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="L3" t="n">
-        <v>6.908798455684817e-05</v>
+        <v>0.0001805280908356854</v>
       </c>
       <c r="M3" t="n">
-        <v>10.03343431457439</v>
+        <v>10.00220086058582</v>
       </c>
       <c r="N3" t="n">
-        <v>155.5137991597964</v>
+        <v>154.6667791091288</v>
       </c>
       <c r="O3" t="n">
-        <v>12.47051719696486</v>
+        <v>12.43650992477909</v>
       </c>
       <c r="P3" t="n">
-        <v>371.8598146757541</v>
+        <v>371.9445459173527</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31892,28 +32182,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02015229357125537</v>
+        <v>0.02649268982828496</v>
       </c>
       <c r="J4" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="K4" t="n">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001384497697515252</v>
+        <v>0.0002432229614053316</v>
       </c>
       <c r="M4" t="n">
-        <v>9.921859354683384</v>
+        <v>9.89904770303434</v>
       </c>
       <c r="N4" t="n">
-        <v>157.839131444235</v>
+        <v>156.9761417851929</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56340445278409</v>
+        <v>12.52901200355371</v>
       </c>
       <c r="P4" t="n">
-        <v>374.8925649552417</v>
+        <v>374.8298259872141</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31970,28 +32260,28 @@
         <v>0.0859</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08393917149892074</v>
+        <v>0.08494875330204174</v>
       </c>
       <c r="J5" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="K5" t="n">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002572436087511565</v>
+        <v>0.002679094876323562</v>
       </c>
       <c r="M5" t="n">
-        <v>9.796044609749694</v>
+        <v>9.765368802870615</v>
       </c>
       <c r="N5" t="n">
-        <v>149.3019307741592</v>
+        <v>148.4039592250465</v>
       </c>
       <c r="O5" t="n">
-        <v>12.21891692312208</v>
+        <v>12.18211636888462</v>
       </c>
       <c r="P5" t="n">
-        <v>376.4799817719619</v>
+        <v>376.4703663177979</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32048,28 +32338,28 @@
         <v>0.0751</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0866701981440354</v>
+        <v>-0.07899699056510093</v>
       </c>
       <c r="J6" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="K6" t="n">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002937824960055235</v>
+        <v>0.002472602305155558</v>
       </c>
       <c r="M6" t="n">
-        <v>9.356827559121827</v>
+        <v>9.354812213060743</v>
       </c>
       <c r="N6" t="n">
-        <v>138.3573994276007</v>
+        <v>138.1479869303737</v>
       </c>
       <c r="O6" t="n">
-        <v>11.76254221788813</v>
+        <v>11.7536371787789</v>
       </c>
       <c r="P6" t="n">
-        <v>374.4566178487772</v>
+        <v>374.381604181228</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32126,28 +32416,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1570897597888177</v>
+        <v>-0.1391535144115609</v>
       </c>
       <c r="J7" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="K7" t="n">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009362357014212952</v>
+        <v>0.007435902047093879</v>
       </c>
       <c r="M7" t="n">
-        <v>9.486990137417477</v>
+        <v>9.482066915965584</v>
       </c>
       <c r="N7" t="n">
-        <v>139.8462011146781</v>
+        <v>139.8690725486626</v>
       </c>
       <c r="O7" t="n">
-        <v>11.82565859116008</v>
+        <v>11.82662557742751</v>
       </c>
       <c r="P7" t="n">
-        <v>368.9032630540975</v>
+        <v>368.7241366390091</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32204,28 +32494,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1642482426535579</v>
+        <v>-0.1477416640046073</v>
       </c>
       <c r="J8" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="K8" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009762006358208897</v>
+        <v>0.007994723239156176</v>
       </c>
       <c r="M8" t="n">
-        <v>9.723653599237682</v>
+        <v>9.710120055524225</v>
       </c>
       <c r="N8" t="n">
-        <v>147.2633700285335</v>
+        <v>147.2605088529546</v>
       </c>
       <c r="O8" t="n">
-        <v>12.13521198943527</v>
+        <v>12.13509410152862</v>
       </c>
       <c r="P8" t="n">
-        <v>364.0549530738135</v>
+        <v>363.890561562466</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32282,28 +32572,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2809960726939699</v>
+        <v>-0.2627215148225716</v>
       </c>
       <c r="J9" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="K9" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02600679439440123</v>
+        <v>0.02299379349177555</v>
       </c>
       <c r="M9" t="n">
-        <v>10.00183827647207</v>
+        <v>10.01086831460421</v>
       </c>
       <c r="N9" t="n">
-        <v>158.3179027567459</v>
+        <v>158.6620307604415</v>
       </c>
       <c r="O9" t="n">
-        <v>12.58244422823904</v>
+        <v>12.59611173181794</v>
       </c>
       <c r="P9" t="n">
-        <v>367.9166023546732</v>
+        <v>367.7343583170576</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32360,28 +32650,28 @@
         <v>0.094</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04626086661625099</v>
+        <v>-0.06429667143413585</v>
       </c>
       <c r="J10" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="K10" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003663072324860961</v>
+        <v>0.000713486322395207</v>
       </c>
       <c r="M10" t="n">
-        <v>14.56422990675127</v>
+        <v>14.57044117975492</v>
       </c>
       <c r="N10" t="n">
-        <v>306.9927366498484</v>
+        <v>306.7384677134108</v>
       </c>
       <c r="O10" t="n">
-        <v>17.5212081960648</v>
+        <v>17.51395065978578</v>
       </c>
       <c r="P10" t="n">
-        <v>390.183802867452</v>
+        <v>390.3649308520011</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32419,7 +32709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K680"/>
+  <dimension ref="A1:K686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66519,6 +66809,340 @@
         </is>
       </c>
     </row>
+    <row r="681">
+      <c r="A681" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:59:42+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>-37.38125602306047,175.93770294748427</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>-37.3819730545038,175.9377763226149</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>-37.38261676724681,175.93813973422579</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>-37.3832496818195,175.9384968233565</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>-37.3838700169726,175.93888783868312</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>-37.38453096406519,175.93922375712577</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>-37.38518447528181,175.93960831766358</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>-37.38579151541242,175.94003140353823</t>
+        </is>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>-37.38631779749006,175.9405966439932</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>-37.38127531145499,175.93760616616</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>-37.38197527646961,175.93776645346668</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>-37.38260395088706,175.93818547135035</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>-37.383276320540645,175.93842174476313</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>-37.38392240915942,175.93876318088624</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>-37.384539739266074,175.93920391446176</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>-37.38517991813955,175.93961946859375</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>-37.38582999108781,175.93994977090077</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>-37.38643267332442,175.94039898300386</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>-37.381289733275025,175.93753380303943</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>-37.381966493411426,175.9378054645299</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>-37.38262246671679,175.9381193947774</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>-37.38326503812082,175.93845354316684</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>-37.38391434436086,175.9387823696567</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>-37.38455277836472,175.93917443016272</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>-37.38523266049971,175.9394904123972</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>-37.385851778678855,175.9399035447619</t>
+        </is>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>-37.386412126665306,175.9404343366762</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>-37.381306062988,175.93745186655087</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>-37.38200345274332,175.93764130454352</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>-37.3826517100175,175.93801503525225</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>-37.38331377811585,175.93831617399096</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>-37.38395826164089,175.9386778760724</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>-37.384609969864876,175.93904510716388</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>-37.38526739320043,175.9394054240675</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>-37.385901109874986,175.93979887987052</t>
+        </is>
+      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>-37.38128987356491,175.93753309911787</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>-37.381987853619485,175.93771059035177</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>-37.38263122479627,175.9380881401736</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>-37.38329218909783,175.93837702072105</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>-37.38392997353744,175.9387451827682</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>-37.38458063195175,175.9391114469261</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>-37.385242267422726,175.93946690499502</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>-37.38588883433943,175.93982492462925</t>
+        </is>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>-37.386475145226036,175.94032590347948</t>
+        </is>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>-37.38130306079407,175.93746693047868</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>-37.3820220982736,175.93755848740088</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>-37.38267978947053,175.93791482872868</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>-37.38333900185717,175.93824508296277</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>-37.38401036305383,175.9385539093227</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>-37.38462286340089,175.93901595187447</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>-37.38527471470401,175.93938750886542</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>-37.385936806613046,175.93972314269905</t>
+        </is>
+      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0203/nzd0203.xlsx
+++ b/data/nzd0203/nzd0203.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K686"/>
+  <dimension ref="A1:K689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24867,6 +24867,123 @@
       <c r="K686" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>370.6785714285714</v>
+      </c>
+      <c r="C687" t="n">
+        <v>378.5885714285714</v>
+      </c>
+      <c r="D687" t="n">
+        <v>387.63</v>
+      </c>
+      <c r="E687" t="n">
+        <v>390.6166666666667</v>
+      </c>
+      <c r="F687" t="n">
+        <v>381.8430769230769</v>
+      </c>
+      <c r="G687" t="n">
+        <v>380.5666666666667</v>
+      </c>
+      <c r="H687" t="n">
+        <v>373.5466666666667</v>
+      </c>
+      <c r="I687" t="n">
+        <v>366.0266666666667</v>
+      </c>
+      <c r="J687" t="n">
+        <v>401.34</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>357.0014285714286</v>
+      </c>
+      <c r="C688" t="n">
+        <v>367.7814285714285</v>
+      </c>
+      <c r="D688" t="n">
+        <v>370.36</v>
+      </c>
+      <c r="E688" t="n">
+        <v>379.6466666666666</v>
+      </c>
+      <c r="F688" t="n">
+        <v>366.4030769230769</v>
+      </c>
+      <c r="G688" t="n">
+        <v>366.3466666666666</v>
+      </c>
+      <c r="H688" t="n">
+        <v>363.4366666666667</v>
+      </c>
+      <c r="I688" t="n">
+        <v>362.8366666666666</v>
+      </c>
+      <c r="J688" t="n">
+        <v>393.06</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>375.7342857142857</v>
+      </c>
+      <c r="C689" t="n">
+        <v>376.1842857142857</v>
+      </c>
+      <c r="D689" t="n">
+        <v>381.675</v>
+      </c>
+      <c r="E689" t="n">
+        <v>384.7566666666667</v>
+      </c>
+      <c r="F689" t="n">
+        <v>377.3707692307692</v>
+      </c>
+      <c r="G689" t="n">
+        <v>372.1266666666667</v>
+      </c>
+      <c r="H689" t="n">
+        <v>371.4566666666666</v>
+      </c>
+      <c r="I689" t="n">
+        <v>366.7466666666666</v>
+      </c>
+      <c r="J689" t="n">
+        <v>411.915</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -24881,7 +24998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B697"/>
+  <dimension ref="A1:B700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31859,6 +31976,36 @@
       </c>
       <c r="B697" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -32026,28 +32173,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.2317779266594954</v>
+        <v>0.2277189317572429</v>
       </c>
       <c r="J2" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K2" t="n">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02063731184727291</v>
+        <v>0.02009609316764382</v>
       </c>
       <c r="M2" t="n">
-        <v>9.162168659093878</v>
+        <v>9.14730291175913</v>
       </c>
       <c r="N2" t="n">
-        <v>140.9544711315343</v>
+        <v>140.5992909711777</v>
       </c>
       <c r="O2" t="n">
-        <v>11.87242482105211</v>
+        <v>11.85745718824983</v>
       </c>
       <c r="P2" t="n">
-        <v>365.6996143821685</v>
+        <v>365.7395643246533</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32104,28 +32251,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02264895280367533</v>
+        <v>-0.01970804956849523</v>
       </c>
       <c r="J3" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K3" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001805280908356854</v>
+        <v>0.0001380675982972646</v>
       </c>
       <c r="M3" t="n">
-        <v>10.00220086058582</v>
+        <v>9.974143593459926</v>
       </c>
       <c r="N3" t="n">
-        <v>154.6667791091288</v>
+        <v>153.9816798029101</v>
       </c>
       <c r="O3" t="n">
-        <v>12.43650992477909</v>
+        <v>12.40893548226076</v>
       </c>
       <c r="P3" t="n">
-        <v>371.9445459173527</v>
+        <v>371.9152386617116</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32182,28 +32329,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02649268982828496</v>
+        <v>0.03103347045525631</v>
       </c>
       <c r="J4" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K4" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002432229614053316</v>
+        <v>0.0003365471559929611</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89904770303434</v>
+        <v>9.886010665058381</v>
       </c>
       <c r="N4" t="n">
-        <v>156.9761417851929</v>
+        <v>156.5017882926406</v>
       </c>
       <c r="O4" t="n">
-        <v>12.52901200355371</v>
+        <v>12.51006747754146</v>
       </c>
       <c r="P4" t="n">
-        <v>374.8298259872141</v>
+        <v>374.7844325909291</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32260,28 +32407,28 @@
         <v>0.0859</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08494875330204174</v>
+        <v>0.09146497871164415</v>
       </c>
       <c r="J5" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K5" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002679094876323562</v>
+        <v>0.00313127277750691</v>
       </c>
       <c r="M5" t="n">
-        <v>9.765368802870615</v>
+        <v>9.745612433395761</v>
       </c>
       <c r="N5" t="n">
-        <v>148.4039592250465</v>
+        <v>147.9200412067723</v>
       </c>
       <c r="O5" t="n">
-        <v>12.18211636888462</v>
+        <v>12.16223833045432</v>
       </c>
       <c r="P5" t="n">
-        <v>376.4703663177979</v>
+        <v>376.4058243315205</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32338,28 +32485,28 @@
         <v>0.0751</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07899699056510093</v>
+        <v>-0.07612495983956491</v>
       </c>
       <c r="J6" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K6" t="n">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002472602305155558</v>
+        <v>0.002316792848871096</v>
       </c>
       <c r="M6" t="n">
-        <v>9.354812213060743</v>
+        <v>9.341204327586556</v>
       </c>
       <c r="N6" t="n">
-        <v>138.1479869303737</v>
+        <v>137.6827805715643</v>
       </c>
       <c r="O6" t="n">
-        <v>11.7536371787789</v>
+        <v>11.73383060094035</v>
       </c>
       <c r="P6" t="n">
-        <v>374.381604181228</v>
+        <v>374.3532314227542</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32416,28 +32563,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1391535144115609</v>
+        <v>-0.1313684615332475</v>
       </c>
       <c r="J7" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K7" t="n">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007435902047093879</v>
+        <v>0.006677450973734178</v>
       </c>
       <c r="M7" t="n">
-        <v>9.482066915965584</v>
+        <v>9.469836899633453</v>
       </c>
       <c r="N7" t="n">
-        <v>139.8690725486626</v>
+        <v>139.6344748501593</v>
       </c>
       <c r="O7" t="n">
-        <v>11.82662557742751</v>
+        <v>11.81670321410161</v>
       </c>
       <c r="P7" t="n">
-        <v>368.7241366390091</v>
+        <v>368.6458142940247</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32494,28 +32641,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1477416640046073</v>
+        <v>-0.1384116839408831</v>
       </c>
       <c r="J8" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K8" t="n">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007994723239156176</v>
+        <v>0.007069900158100162</v>
       </c>
       <c r="M8" t="n">
-        <v>9.710120055524225</v>
+        <v>9.702655887336297</v>
       </c>
       <c r="N8" t="n">
-        <v>147.2605088529546</v>
+        <v>147.0412954796661</v>
       </c>
       <c r="O8" t="n">
-        <v>12.13509410152862</v>
+        <v>12.12605853027546</v>
       </c>
       <c r="P8" t="n">
-        <v>363.890561562466</v>
+        <v>363.7968991136619</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32572,28 +32719,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2627215148225716</v>
+        <v>-0.2585258600334912</v>
       </c>
       <c r="J9" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K9" t="n">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02299379349177555</v>
+        <v>0.02249484251182465</v>
       </c>
       <c r="M9" t="n">
-        <v>10.01086831460421</v>
+        <v>9.979716912177757</v>
       </c>
       <c r="N9" t="n">
-        <v>158.6620307604415</v>
+        <v>157.9378240718353</v>
       </c>
       <c r="O9" t="n">
-        <v>12.59611173181794</v>
+        <v>12.56733162098603</v>
       </c>
       <c r="P9" t="n">
-        <v>367.7343583170576</v>
+        <v>367.6921671529176</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32650,28 +32797,28 @@
         <v>0.094</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06429667143413585</v>
+        <v>-0.0499612432660836</v>
       </c>
       <c r="J10" t="n">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="K10" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000713486322395207</v>
+        <v>0.0004340082213698526</v>
       </c>
       <c r="M10" t="n">
-        <v>14.57044117975492</v>
+        <v>14.55974102735948</v>
       </c>
       <c r="N10" t="n">
-        <v>306.7384677134108</v>
+        <v>306.3525074186137</v>
       </c>
       <c r="O10" t="n">
-        <v>17.51395065978578</v>
+        <v>17.50292853835077</v>
       </c>
       <c r="P10" t="n">
-        <v>390.3649308520011</v>
+        <v>390.2201730372222</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32709,7 +32856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K686"/>
+  <dimension ref="A1:K689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67143,6 +67290,177 @@
         </is>
       </c>
     </row>
+    <row r="687">
+      <c r="A687" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>-37.38128733899402,175.93754581663356</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>-37.38196082669021,175.93783063395364</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>-37.38260699458754,175.93817460945036</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>-37.383247352148956,175.93850338929312</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>-37.38390997942462,175.93879275525046</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>-37.38454385764285,175.93919460189971</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>-37.385208095768945,175.9395505203274</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>-37.38588446766754,175.93983418930497</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>-37.386277419873686,175.9406661194269</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>-37.381317186365216,175.93739605335713</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>-37.38198725620545,175.9377132438502</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>-37.3826585284682,175.93799070243213</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>-37.38328749317752,175.9383902557394</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>-37.38397478185066,175.93863856899924</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>-37.384605938814424,175.93905422230304</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>-37.385249602620235,175.93944895631907</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>-37.385899079220835,175.93980318827028</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>-37.386321323570314,175.94059057686374</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>-37.38127630595715,175.93760117614033</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>-37.38196670652475,175.93780451796084</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>-37.38262476440793,175.93811119510357</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>-37.3832687948626,175.93844295515893</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>-37.38392874993572,175.93874809411574</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>-37.38458070471446,175.93911128239301</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>-37.38521667632165,175.93952952441435</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>-37.385881169761035,175.93984118640202</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>-37.38622134715243,175.9407626002874</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0203/nzd0203.xlsx
+++ b/data/nzd0203/nzd0203.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K689"/>
+  <dimension ref="A1:K692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24982,6 +24982,123 @@
         <v>411.915</v>
       </c>
       <c r="K689" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>371.9685714285715</v>
+      </c>
+      <c r="C690" t="n">
+        <v>367.6385714285714</v>
+      </c>
+      <c r="D690" t="n">
+        <v>372.165</v>
+      </c>
+      <c r="E690" t="n">
+        <v>375.2233333333334</v>
+      </c>
+      <c r="F690" t="n">
+        <v>379.8207692307692</v>
+      </c>
+      <c r="G690" t="n">
+        <v>369.5733333333333</v>
+      </c>
+      <c r="H690" t="n">
+        <v>364.7633333333333</v>
+      </c>
+      <c r="I690" t="n">
+        <v>364.4733333333334</v>
+      </c>
+      <c r="J690" t="n">
+        <v>414.825</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>373.0828571428572</v>
+      </c>
+      <c r="C691" t="n">
+        <v>370.2928571428571</v>
+      </c>
+      <c r="D691" t="n">
+        <v>372.21</v>
+      </c>
+      <c r="E691" t="n">
+        <v>384.4233333333333</v>
+      </c>
+      <c r="F691" t="n">
+        <v>385.7161538461539</v>
+      </c>
+      <c r="G691" t="n">
+        <v>382.8733333333333</v>
+      </c>
+      <c r="H691" t="n">
+        <v>378.7733333333334</v>
+      </c>
+      <c r="I691" t="n">
+        <v>370.8833333333334</v>
+      </c>
+      <c r="J691" t="n">
+        <v>415.72</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>364.7242857142857</v>
+      </c>
+      <c r="C692" t="n">
+        <v>362.9642857142857</v>
+      </c>
+      <c r="D692" t="n">
+        <v>370.355</v>
+      </c>
+      <c r="E692" t="n">
+        <v>378.9933333333333</v>
+      </c>
+      <c r="F692" t="n">
+        <v>370.13</v>
+      </c>
+      <c r="G692" t="n">
+        <v>372.2833333333333</v>
+      </c>
+      <c r="H692" t="n">
+        <v>368.5733333333333</v>
+      </c>
+      <c r="I692" t="n">
+        <v>363.4333333333333</v>
+      </c>
+      <c r="J692" t="n">
+        <v>392.025</v>
+      </c>
+      <c r="K692" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24998,7 +25115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B700"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32006,6 +32123,36 @@
       </c>
       <c r="B700" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -32173,28 +32320,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.2277189317572429</v>
+        <v>0.2259703856910404</v>
       </c>
       <c r="J2" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K2" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02009609316764382</v>
+        <v>0.01999924547614096</v>
       </c>
       <c r="M2" t="n">
-        <v>9.14730291175913</v>
+        <v>9.112759731699589</v>
       </c>
       <c r="N2" t="n">
-        <v>140.5992909711777</v>
+        <v>139.9123621743915</v>
       </c>
       <c r="O2" t="n">
-        <v>11.85745718824983</v>
+        <v>11.82845561239469</v>
       </c>
       <c r="P2" t="n">
-        <v>365.7395643246533</v>
+        <v>365.7568401175476</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32251,28 +32398,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01970804956849523</v>
+        <v>-0.02429695763542316</v>
       </c>
       <c r="J3" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K3" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001380675982972646</v>
+        <v>0.0002119208308339893</v>
       </c>
       <c r="M3" t="n">
-        <v>9.974143593459926</v>
+        <v>9.946579691476838</v>
       </c>
       <c r="N3" t="n">
-        <v>153.9816798029101</v>
+        <v>153.3002454065208</v>
       </c>
       <c r="O3" t="n">
-        <v>12.40893548226076</v>
+        <v>12.3814476296805</v>
       </c>
       <c r="P3" t="n">
-        <v>371.9152386617116</v>
+        <v>371.9611408101678</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32329,28 +32476,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03103347045525631</v>
+        <v>0.02691743188459898</v>
       </c>
       <c r="J4" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K4" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003365471559929611</v>
+        <v>0.0002558148132680849</v>
       </c>
       <c r="M4" t="n">
-        <v>9.886010665058381</v>
+        <v>9.855167640285648</v>
       </c>
       <c r="N4" t="n">
-        <v>156.5017882926406</v>
+        <v>155.7411039755326</v>
       </c>
       <c r="O4" t="n">
-        <v>12.51006747754146</v>
+        <v>12.47962755756487</v>
       </c>
       <c r="P4" t="n">
-        <v>374.7844325909291</v>
+        <v>374.825731477439</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32407,28 +32554,28 @@
         <v>0.0859</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09146497871164415</v>
+        <v>0.09226526460941578</v>
       </c>
       <c r="J5" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K5" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00313127277750691</v>
+        <v>0.003218528738197612</v>
       </c>
       <c r="M5" t="n">
-        <v>9.745612433395761</v>
+        <v>9.709583478365706</v>
       </c>
       <c r="N5" t="n">
-        <v>147.9200412067723</v>
+        <v>147.1969503886186</v>
       </c>
       <c r="O5" t="n">
-        <v>12.16223833045432</v>
+        <v>12.13247503144427</v>
       </c>
       <c r="P5" t="n">
-        <v>376.4058243315205</v>
+        <v>376.3978710380623</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32485,28 +32632,28 @@
         <v>0.0751</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07612495983956491</v>
+        <v>-0.06997936402554675</v>
       </c>
       <c r="J6" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K6" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002316792848871096</v>
+        <v>0.001973486017009529</v>
       </c>
       <c r="M6" t="n">
-        <v>9.341204327586556</v>
+        <v>9.331987823321686</v>
       </c>
       <c r="N6" t="n">
-        <v>137.6827805715643</v>
+        <v>137.3725263015235</v>
       </c>
       <c r="O6" t="n">
-        <v>11.73383060094035</v>
+        <v>11.72060264242089</v>
       </c>
       <c r="P6" t="n">
-        <v>374.3532314227542</v>
+        <v>374.2923193820712</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32563,28 +32710,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1313684615332475</v>
+        <v>-0.1219054441515675</v>
       </c>
       <c r="J7" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K7" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006677450973734178</v>
+        <v>0.005787620467688881</v>
       </c>
       <c r="M7" t="n">
-        <v>9.469836899633453</v>
+        <v>9.465991375212973</v>
       </c>
       <c r="N7" t="n">
-        <v>139.6344748501593</v>
+        <v>139.555859690431</v>
       </c>
       <c r="O7" t="n">
-        <v>11.81670321410161</v>
+        <v>11.81337630359886</v>
       </c>
       <c r="P7" t="n">
-        <v>368.6458142940247</v>
+        <v>368.5503022555387</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32641,28 +32788,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1384116839408831</v>
+        <v>-0.128102243007874</v>
       </c>
       <c r="J8" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K8" t="n">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007069900158100162</v>
+        <v>0.00609341610617764</v>
       </c>
       <c r="M8" t="n">
-        <v>9.702655887336297</v>
+        <v>9.700349173610292</v>
       </c>
       <c r="N8" t="n">
-        <v>147.0412954796661</v>
+        <v>147.0192695401936</v>
       </c>
       <c r="O8" t="n">
-        <v>12.12605853027546</v>
+        <v>12.12515028938584</v>
       </c>
       <c r="P8" t="n">
-        <v>363.7968991136619</v>
+        <v>363.6930858089576</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32719,28 +32866,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2585258600334912</v>
+        <v>-0.2533765411817616</v>
       </c>
       <c r="J9" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K9" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02249484251182465</v>
+        <v>0.02181971906540281</v>
       </c>
       <c r="M9" t="n">
-        <v>9.979716912177757</v>
+        <v>9.953631234471825</v>
       </c>
       <c r="N9" t="n">
-        <v>157.9378240718353</v>
+        <v>157.3114561472268</v>
       </c>
       <c r="O9" t="n">
-        <v>12.56733162098603</v>
+        <v>12.54238638167501</v>
       </c>
       <c r="P9" t="n">
-        <v>367.6921671529176</v>
+        <v>367.6402396410751</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32797,28 +32944,28 @@
         <v>0.094</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0499612432660836</v>
+        <v>-0.03029278470172649</v>
       </c>
       <c r="J10" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K10" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004340082213698526</v>
+        <v>0.0001600899103391118</v>
       </c>
       <c r="M10" t="n">
-        <v>14.55974102735948</v>
+        <v>14.57577556961892</v>
       </c>
       <c r="N10" t="n">
-        <v>306.3525074186137</v>
+        <v>307.1847541563772</v>
       </c>
       <c r="O10" t="n">
-        <v>17.50292853835077</v>
+        <v>17.52668691328675</v>
       </c>
       <c r="P10" t="n">
-        <v>390.2201730372222</v>
+        <v>390.0210731935907</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32856,7 +33003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K689"/>
+  <dimension ref="A1:K692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33065,7 +33212,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-37.38531355284255,175.93929247451806</t>
+          <t>-37.38531355284254,175.93929247451806</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -61110,7 +61257,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>-37.3832735517746,175.93842954826422</t>
+          <t>-37.38327355177459,175.93842954826422</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -67461,6 +67608,177 @@
         </is>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>-37.38128452384178,175.93755994199117</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>-37.38198760557039,175.93771169209674</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>-37.382653142340146,175.93800992376308</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>-37.38330367885013,175.9383446378896</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>-37.38391846715857,175.9387725601857</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>-37.384591851961375,175.93908607592218</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>-37.38524415596264,175.93946228388103</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>-37.38589158259413,175.93981909371388</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>-37.38620591719926,175.94078914960485</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>-37.38128209214749,175.93757214329582</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>-37.381981114366546,175.9377405236734</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>-37.38265300805991,175.93801040296518</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>-37.383270014583765,175.93843951749378</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>-37.38389372390373,175.93883143235823</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>-37.38453378726448,175.93921737325098</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>-37.38518663752913,175.93960302683138</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>-37.38586222205913,175.93988138730367</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>-37.386201171559634,175.94079731511437</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>-37.3813003329423,175.93748061784703</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>-37.38199903678036,175.93766091871504</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>-37.38265854338821,175.93799064918744</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>-37.38328988382804,175.9383835179121</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>-37.383959139791884,175.93867578666033</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>-37.38458002074484,175.9391128290039</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>-37.38522851392045,175.93950055875263</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>-37.385896346234965,175.93980898679285</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>-37.386326811529244,175.94058113403702</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0203/nzd0203.xlsx
+++ b/data/nzd0203/nzd0203.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K692"/>
+  <dimension ref="A1:K696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25099,6 +25099,162 @@
         <v>392.025</v>
       </c>
       <c r="K692" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>362.63</v>
+      </c>
+      <c r="C693" t="n">
+        <v>365.86</v>
+      </c>
+      <c r="D693" t="n">
+        <v>366.17</v>
+      </c>
+      <c r="E693" t="n">
+        <v>378.6633333333334</v>
+      </c>
+      <c r="F693" t="n">
+        <v>368.1946153846154</v>
+      </c>
+      <c r="G693" t="n">
+        <v>370.5233333333334</v>
+      </c>
+      <c r="H693" t="n">
+        <v>367.8033333333333</v>
+      </c>
+      <c r="I693" t="n">
+        <v>365.8433333333334</v>
+      </c>
+      <c r="J693" t="n">
+        <v>396.47</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>356.4</v>
+      </c>
+      <c r="C694" t="n">
+        <v>358.67</v>
+      </c>
+      <c r="D694" t="n">
+        <v>369.72</v>
+      </c>
+      <c r="E694" t="n">
+        <v>376.7866666666666</v>
+      </c>
+      <c r="F694" t="n">
+        <v>374.8853846153846</v>
+      </c>
+      <c r="G694" t="n">
+        <v>368.3666666666666</v>
+      </c>
+      <c r="H694" t="n">
+        <v>366.0666666666667</v>
+      </c>
+      <c r="I694" t="n">
+        <v>366.4366666666667</v>
+      </c>
+      <c r="J694" t="n">
+        <v>409.28</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>361.2357142857143</v>
+      </c>
+      <c r="C695" t="n">
+        <v>360.5657142857143</v>
+      </c>
+      <c r="D695" t="n">
+        <v>369.795</v>
+      </c>
+      <c r="E695" t="n">
+        <v>371.43</v>
+      </c>
+      <c r="F695" t="n">
+        <v>373.2261538461539</v>
+      </c>
+      <c r="G695" t="n">
+        <v>368.2</v>
+      </c>
+      <c r="H695" t="n">
+        <v>366.28</v>
+      </c>
+      <c r="I695" t="n">
+        <v>370.87</v>
+      </c>
+      <c r="J695" t="n">
+        <v>406.925</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>353.8728571428572</v>
+      </c>
+      <c r="C696" t="n">
+        <v>350.5728571428572</v>
+      </c>
+      <c r="D696" t="n">
+        <v>375.255</v>
+      </c>
+      <c r="E696" t="n">
+        <v>381.0833333333333</v>
+      </c>
+      <c r="F696" t="n">
+        <v>381.2307692307692</v>
+      </c>
+      <c r="G696" t="n">
+        <v>374.4533333333333</v>
+      </c>
+      <c r="H696" t="n">
+        <v>364.4033333333334</v>
+      </c>
+      <c r="I696" t="n">
+        <v>373.0933333333334</v>
+      </c>
+      <c r="J696" t="n">
+        <v>396.975</v>
+      </c>
+      <c r="K696" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25115,7 +25271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B703"/>
+  <dimension ref="A1:B707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32153,6 +32309,46 @@
       </c>
       <c r="B703" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -32320,28 +32516,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.2259703856910404</v>
+        <v>0.2081369687699642</v>
       </c>
       <c r="J2" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K2" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01999924547614096</v>
+        <v>0.01710559099002196</v>
       </c>
       <c r="M2" t="n">
-        <v>9.112759731699589</v>
+        <v>9.141706139156764</v>
       </c>
       <c r="N2" t="n">
-        <v>139.9123621743915</v>
+        <v>140.1988713591653</v>
       </c>
       <c r="O2" t="n">
-        <v>11.82845561239469</v>
+        <v>11.84056043264698</v>
       </c>
       <c r="P2" t="n">
-        <v>365.7568401175476</v>
+        <v>365.9332082374331</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32398,28 +32594,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02429695763542316</v>
+        <v>-0.0410938406826707</v>
       </c>
       <c r="J3" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K3" t="n">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002119208308339893</v>
+        <v>0.0006094701648647893</v>
       </c>
       <c r="M3" t="n">
-        <v>9.946579691476838</v>
+        <v>9.971516530813469</v>
       </c>
       <c r="N3" t="n">
-        <v>153.3002454065208</v>
+        <v>153.5000766947653</v>
       </c>
       <c r="O3" t="n">
-        <v>12.3814476296805</v>
+        <v>12.38951478851231</v>
       </c>
       <c r="P3" t="n">
-        <v>371.9611408101678</v>
+        <v>372.1294729843061</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32476,28 +32672,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02691743188459898</v>
+        <v>0.01981367255761578</v>
       </c>
       <c r="J4" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K4" t="n">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002558148132680849</v>
+        <v>0.0001403504696539937</v>
       </c>
       <c r="M4" t="n">
-        <v>9.855167640285648</v>
+        <v>9.823433502704523</v>
       </c>
       <c r="N4" t="n">
-        <v>155.7411039755326</v>
+        <v>154.8931458835064</v>
       </c>
       <c r="O4" t="n">
-        <v>12.47962755756487</v>
+        <v>12.44560749354994</v>
       </c>
       <c r="P4" t="n">
-        <v>374.825731477439</v>
+        <v>374.8971013087936</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32554,28 +32750,28 @@
         <v>0.0859</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09226526460941578</v>
+        <v>0.08989533975425219</v>
       </c>
       <c r="J5" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K5" t="n">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003218528738197612</v>
+        <v>0.003096398835712222</v>
       </c>
       <c r="M5" t="n">
-        <v>9.709583478365706</v>
+        <v>9.661187130272177</v>
       </c>
       <c r="N5" t="n">
-        <v>147.1969503886186</v>
+        <v>146.2512138662036</v>
       </c>
       <c r="O5" t="n">
-        <v>12.13247503144427</v>
+        <v>12.09343680953448</v>
       </c>
       <c r="P5" t="n">
-        <v>376.3978710380623</v>
+        <v>376.4214603874391</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32632,28 +32828,28 @@
         <v>0.0751</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06997936402554675</v>
+        <v>-0.0674927693927078</v>
       </c>
       <c r="J6" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K6" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001973486017009529</v>
+        <v>0.00185931317657928</v>
       </c>
       <c r="M6" t="n">
-        <v>9.331987823321686</v>
+        <v>9.29488568678345</v>
       </c>
       <c r="N6" t="n">
-        <v>137.3725263015235</v>
+        <v>136.592319641365</v>
       </c>
       <c r="O6" t="n">
-        <v>11.72060264242089</v>
+        <v>11.68727169365738</v>
       </c>
       <c r="P6" t="n">
-        <v>374.2923193820712</v>
+        <v>374.2675727582796</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32710,28 +32906,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1219054441515675</v>
+        <v>-0.115500337119891</v>
       </c>
       <c r="J7" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K7" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005787620467688881</v>
+        <v>0.005260519384550966</v>
       </c>
       <c r="M7" t="n">
-        <v>9.465991375212973</v>
+        <v>9.431643187803436</v>
       </c>
       <c r="N7" t="n">
-        <v>139.555859690431</v>
+        <v>138.807126604088</v>
       </c>
       <c r="O7" t="n">
-        <v>11.81337630359886</v>
+        <v>11.78164362914139</v>
       </c>
       <c r="P7" t="n">
-        <v>368.5503022555387</v>
+        <v>368.4855161293201</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32788,28 +32984,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.128102243007874</v>
+        <v>-0.1206852843109777</v>
       </c>
       <c r="J8" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K8" t="n">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00609341610617764</v>
+        <v>0.005476283619933908</v>
       </c>
       <c r="M8" t="n">
-        <v>9.700349173610292</v>
+        <v>9.668218307635994</v>
       </c>
       <c r="N8" t="n">
-        <v>147.0192695401936</v>
+        <v>146.2342586719047</v>
       </c>
       <c r="O8" t="n">
-        <v>12.12515028938584</v>
+        <v>12.09273578111689</v>
       </c>
       <c r="P8" t="n">
-        <v>363.6930858089576</v>
+        <v>363.6182672433281</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32866,28 +33062,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2533765411817616</v>
+        <v>-0.2430921327084695</v>
       </c>
       <c r="J9" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K9" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02181971906540281</v>
+        <v>0.02032535491966381</v>
       </c>
       <c r="M9" t="n">
-        <v>9.953631234471825</v>
+        <v>9.936737954388828</v>
       </c>
       <c r="N9" t="n">
-        <v>157.3114561472268</v>
+        <v>156.7167745220275</v>
       </c>
       <c r="O9" t="n">
-        <v>12.54238638167501</v>
+        <v>12.51865705744939</v>
       </c>
       <c r="P9" t="n">
-        <v>367.6402396410751</v>
+        <v>367.536292613135</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32944,28 +33140,28 @@
         <v>0.094</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03029278470172649</v>
+        <v>-0.01203770329374652</v>
       </c>
       <c r="J10" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K10" t="n">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001600899103391118</v>
+        <v>2.553534051874529e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>14.57577556961892</v>
+        <v>14.55936328341278</v>
       </c>
       <c r="N10" t="n">
-        <v>307.1847541563772</v>
+        <v>306.4367616878187</v>
       </c>
       <c r="O10" t="n">
-        <v>17.52668691328675</v>
+        <v>17.50533523494534</v>
       </c>
       <c r="P10" t="n">
-        <v>390.0210731935907</v>
+        <v>389.8359005816678</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33003,7 +33199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K692"/>
+  <dimension ref="A1:K696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67779,6 +67975,234 @@
         </is>
       </c>
     </row>
+    <row r="693">
+      <c r="A693" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>-37.381304903262226,175.9374576856384</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>-37.38199195516225,175.9376923727649</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>-37.382671031435265,175.93794608337558</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>-37.38329109135036,175.9383801146216</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>-37.38396726268696,175.93865645959622</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>-37.38458770448759,175.93909545430975</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>-37.38523167517403,175.93949282341245</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>-37.385885307412195,175.93983240763666</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>-37.386303242463974,175.94062168800266</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>-37.38131849884719,175.93738946777452</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>-37.38200953866179,175.9376142729834</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>-37.38266043823033,175.93798388711184</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>-37.383297958369425,175.93836076055325</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>-37.38393918121903,175.93872327468262</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>-37.38459711997968,175.93907416372306</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>-37.385238805099135,175.93947537703667</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>-37.38588258969305,175.9398381737631</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>-37.386235318943704,175.94073855991647</t>
+        </is>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>-37.38130794598303,175.93744241835455</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>-37.382004902603896,175.93763486476357</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>-37.382660214430096,175.93798468578223</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>-37.38331755924021,175.93830551721524</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>-37.383946145090654,175.9387067053449</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>-37.38459784760642,175.93907251839155</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>-37.385237929254345,175.93947752016172</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>-37.38586228313152,175.93988125772788</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>-37.386247806062634,175.94071707411237</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>-37.38132401376169,175.93736179581052</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>-37.38202934056386,175.93752631951614</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>-37.38264392175936,175.93804282897096</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>-37.383282236184534,175.93840507208256</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>-37.38391254931321,175.93878664065545</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>-37.38457054703597,175.939134251207</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>-37.38524563395026,175.9394586673569</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>-37.385852099309005,175.93990286448917</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>-37.38630056476282,175.94062629536947</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0203/nzd0203.xlsx
+++ b/data/nzd0203/nzd0203.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K696"/>
+  <dimension ref="A1:K702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25255,6 +25255,236 @@
         <v>396.975</v>
       </c>
       <c r="K696" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 21:59:44+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>359.46</v>
+      </c>
+      <c r="C697" t="n">
+        <v>369.04</v>
+      </c>
+      <c r="D697" t="n">
+        <v>373.78</v>
+      </c>
+      <c r="E697" t="n">
+        <v>378.42</v>
+      </c>
+      <c r="F697" t="n">
+        <v>379.2315384615384</v>
+      </c>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr"/>
+      <c r="I697" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="J697" t="n">
+        <v>389.9</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>367.2557142857143</v>
+      </c>
+      <c r="C698" t="n">
+        <v>362.0657142857143</v>
+      </c>
+      <c r="D698" t="n">
+        <v>366.385</v>
+      </c>
+      <c r="E698" t="n">
+        <v>372.4066666666666</v>
+      </c>
+      <c r="F698" t="n">
+        <v>365.8869230769231</v>
+      </c>
+      <c r="G698" t="n">
+        <v>357.9666666666666</v>
+      </c>
+      <c r="H698" t="n">
+        <v>353.8066666666666</v>
+      </c>
+      <c r="I698" t="n">
+        <v>345.8366666666666</v>
+      </c>
+      <c r="J698" t="n">
+        <v>388.495</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>369.4</v>
+      </c>
+      <c r="C699" t="n">
+        <v>367.6</v>
+      </c>
+      <c r="D699" t="n">
+        <v>377.665</v>
+      </c>
+      <c r="E699" t="n">
+        <v>376.66</v>
+      </c>
+      <c r="F699" t="n">
+        <v>372.3007692307692</v>
+      </c>
+      <c r="G699" t="n">
+        <v>365.18</v>
+      </c>
+      <c r="H699" t="n">
+        <v>368.83</v>
+      </c>
+      <c r="I699" t="n">
+        <v>361.13</v>
+      </c>
+      <c r="J699" t="n">
+        <v>408.965</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>359.56</v>
+      </c>
+      <c r="C700" t="n">
+        <v>361.88</v>
+      </c>
+      <c r="D700" t="n">
+        <v>367.94</v>
+      </c>
+      <c r="E700" t="n">
+        <v>372.3966666666666</v>
+      </c>
+      <c r="F700" t="n">
+        <v>368.0253846153847</v>
+      </c>
+      <c r="G700" t="n">
+        <v>359.3866666666667</v>
+      </c>
+      <c r="H700" t="n">
+        <v>358.3366666666666</v>
+      </c>
+      <c r="I700" t="n">
+        <v>348.5466666666666</v>
+      </c>
+      <c r="J700" t="n">
+        <v>413.37</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>365.8</v>
+      </c>
+      <c r="C701" t="n">
+        <v>381.03</v>
+      </c>
+      <c r="D701" t="n">
+        <v>382.35</v>
+      </c>
+      <c r="E701" t="n">
+        <v>377.7733333333334</v>
+      </c>
+      <c r="F701" t="n">
+        <v>368.4646153846153</v>
+      </c>
+      <c r="G701" t="n">
+        <v>354.5933333333334</v>
+      </c>
+      <c r="H701" t="n">
+        <v>359.1933333333334</v>
+      </c>
+      <c r="I701" t="n">
+        <v>349.1233333333333</v>
+      </c>
+      <c r="J701" t="n">
+        <v>383.75</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>365.1657142857143</v>
+      </c>
+      <c r="C702" t="n">
+        <v>367.5357142857143</v>
+      </c>
+      <c r="D702" t="n">
+        <v>377.095</v>
+      </c>
+      <c r="E702" t="n">
+        <v>373.37</v>
+      </c>
+      <c r="F702" t="n">
+        <v>366.5115384615385</v>
+      </c>
+      <c r="G702" t="n">
+        <v>365.52</v>
+      </c>
+      <c r="H702" t="n">
+        <v>360.69</v>
+      </c>
+      <c r="I702" t="n">
+        <v>361.9</v>
+      </c>
+      <c r="J702" t="n">
+        <v>396.845</v>
+      </c>
+      <c r="K702" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25271,7 +25501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B707"/>
+  <dimension ref="A1:B713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32349,6 +32579,66 @@
       </c>
       <c r="B707" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-08-11 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -32516,28 +32806,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.2081369687699642</v>
+        <v>0.1942842636128946</v>
       </c>
       <c r="J2" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="K2" t="n">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01710559099002196</v>
+        <v>0.01518968287987155</v>
       </c>
       <c r="M2" t="n">
-        <v>9.141706139156764</v>
+        <v>9.116724561394477</v>
       </c>
       <c r="N2" t="n">
-        <v>140.1988713591653</v>
+        <v>139.3248652242619</v>
       </c>
       <c r="O2" t="n">
-        <v>11.84056043264698</v>
+        <v>11.80359543631778</v>
       </c>
       <c r="P2" t="n">
-        <v>365.9332082374331</v>
+        <v>366.0711968458602</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32594,28 +32884,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0410938406826707</v>
+        <v>-0.04680590596170898</v>
       </c>
       <c r="J3" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="K3" t="n">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006094701648647893</v>
+        <v>0.0008047701302360544</v>
       </c>
       <c r="M3" t="n">
-        <v>9.971516530813469</v>
+        <v>9.932950096963785</v>
       </c>
       <c r="N3" t="n">
-        <v>153.5000766947653</v>
+        <v>152.3802970054945</v>
       </c>
       <c r="O3" t="n">
-        <v>12.38951478851231</v>
+        <v>12.34424145119879</v>
       </c>
       <c r="P3" t="n">
-        <v>372.1294729843061</v>
+        <v>372.1870704436638</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32672,28 +32962,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01981367255761578</v>
+        <v>0.01743134397611179</v>
       </c>
       <c r="J4" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="K4" t="n">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001403504696539937</v>
+        <v>0.0001106928612594205</v>
       </c>
       <c r="M4" t="n">
-        <v>9.823433502704523</v>
+        <v>9.770562363007359</v>
       </c>
       <c r="N4" t="n">
-        <v>154.8931458835064</v>
+        <v>153.5877268114009</v>
       </c>
       <c r="O4" t="n">
-        <v>12.44560749354994</v>
+        <v>12.39305155364896</v>
       </c>
       <c r="P4" t="n">
-        <v>374.8971013087936</v>
+        <v>374.921156235667</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32750,28 +33040,28 @@
         <v>0.0859</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08989533975425219</v>
+        <v>0.08287734774934136</v>
       </c>
       <c r="J5" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="K5" t="n">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003096398835712222</v>
+        <v>0.00268471313100993</v>
       </c>
       <c r="M5" t="n">
-        <v>9.661187130272177</v>
+        <v>9.596156214207483</v>
       </c>
       <c r="N5" t="n">
-        <v>146.2512138662036</v>
+        <v>144.8901871152612</v>
       </c>
       <c r="O5" t="n">
-        <v>12.09343680953448</v>
+        <v>12.0370339833059</v>
       </c>
       <c r="P5" t="n">
-        <v>376.4214603874391</v>
+        <v>376.4918874718564</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32828,28 +33118,28 @@
         <v>0.0751</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0674927693927078</v>
+        <v>-0.07223029773981111</v>
       </c>
       <c r="J6" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="K6" t="n">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00185931317657928</v>
+        <v>0.002169077769029082</v>
       </c>
       <c r="M6" t="n">
-        <v>9.29488568678345</v>
+        <v>9.24732866241742</v>
       </c>
       <c r="N6" t="n">
-        <v>136.592319641365</v>
+        <v>135.4582340665356</v>
       </c>
       <c r="O6" t="n">
-        <v>11.68727169365738</v>
+        <v>11.6386525881021</v>
       </c>
       <c r="P6" t="n">
-        <v>374.2675727582796</v>
+        <v>374.3150582249549</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32906,28 +33196,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.115500337119891</v>
+        <v>-0.1234015742487204</v>
       </c>
       <c r="J7" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="K7" t="n">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005260519384550966</v>
+        <v>0.006085712348560701</v>
       </c>
       <c r="M7" t="n">
-        <v>9.431643187803436</v>
+        <v>9.397325112565953</v>
       </c>
       <c r="N7" t="n">
-        <v>138.807126604088</v>
+        <v>137.9820853640396</v>
       </c>
       <c r="O7" t="n">
-        <v>11.78164362914139</v>
+        <v>11.74657760218012</v>
       </c>
       <c r="P7" t="n">
-        <v>368.4855161293201</v>
+        <v>368.5660461896997</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32984,28 +33274,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1206852843109777</v>
+        <v>-0.1211919367145461</v>
       </c>
       <c r="J8" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="K8" t="n">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005476283619933908</v>
+        <v>0.005607439998050134</v>
       </c>
       <c r="M8" t="n">
-        <v>9.668218307635994</v>
+        <v>9.617539700268797</v>
       </c>
       <c r="N8" t="n">
-        <v>146.2342586719047</v>
+        <v>145.1851690420188</v>
       </c>
       <c r="O8" t="n">
-        <v>12.09273578111689</v>
+        <v>12.04928085165329</v>
       </c>
       <c r="P8" t="n">
-        <v>363.6182672433281</v>
+        <v>363.6233989717859</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33062,28 +33352,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2430921327084695</v>
+        <v>-0.2562646428415257</v>
       </c>
       <c r="J9" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="K9" t="n">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02032535491966381</v>
+        <v>0.02285331073555252</v>
       </c>
       <c r="M9" t="n">
-        <v>9.936737954388828</v>
+        <v>9.910815590628447</v>
       </c>
       <c r="N9" t="n">
-        <v>156.7167745220275</v>
+        <v>156.0336832395847</v>
       </c>
       <c r="O9" t="n">
-        <v>12.51865705744939</v>
+        <v>12.49134433276037</v>
       </c>
       <c r="P9" t="n">
-        <v>367.536292613135</v>
+        <v>367.6703959576563</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33140,28 +33430,28 @@
         <v>0.094</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01203770329374652</v>
+        <v>0.002999576187731478</v>
       </c>
       <c r="J10" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="K10" t="n">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="L10" t="n">
-        <v>2.553534051874529e-05</v>
+        <v>1.610947762853421e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>14.55936328341278</v>
+        <v>14.50272498371353</v>
       </c>
       <c r="N10" t="n">
-        <v>306.4367616878187</v>
+        <v>304.9929244497948</v>
       </c>
       <c r="O10" t="n">
-        <v>17.50533523494534</v>
+        <v>17.46404662298503</v>
       </c>
       <c r="P10" t="n">
-        <v>389.8359005816678</v>
+        <v>389.6822314794712</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33199,7 +33489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K696"/>
+  <dimension ref="A1:K702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68203,6 +68493,340 @@
         </is>
       </c>
     </row>
+    <row r="697">
+      <c r="A697" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 21:59:44+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>-37.381311821084736,175.93742297446548</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>-37.381984178299454,175.93772691479745</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>-37.38264832317038,175.9380271217935</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>-37.38329198174554,175.9383776051245</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>-37.383920940191125,175.9387666760389</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr"/>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>-37.38591436256151,175.9397707618874</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>-37.38633807907557,175.9405617465865</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>-37.381294808648036,175.93750833671996</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>-37.3820012342813,175.9376511581822</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>-37.38267038987528,175.93794837289795</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>-37.38331398546785,175.93831558958715</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>-37.38397694817,175.93863341460155</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>-37.38464252384734,175.9389714949742</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>-37.38528913874277,175.93935221423246</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>-37.38597694630369,175.93963797878519</t>
+        </is>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>-37.38634552891046,175.9405489280571</t>
+        </is>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>-37.381290129204196,175.93753181641637</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>-37.381987699898914,175.93771127312328</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>-37.38263673029701,175.93806849289737</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>-37.3832984218626,175.93835945423947</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>-37.38395002897357,175.93869746430818</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>-37.384611032199366,175.93904270497902</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>-37.38522746016916,175.9395031371992</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>-37.38590689647506,175.93978660254965</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>-37.3862369891955,175.9407356860195</t>
+        </is>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>-37.381311602857046,175.93742406945526</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>-37.38200168845469,175.9376491409019</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>-37.38266574975427,175.93796493200045</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>-37.38331402205938,175.9383154864571</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>-37.383967972955844,175.93865476963015</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>-37.38463632447808,175.9389855132148</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>-37.38527054076303,175.93939772220534</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>-37.38596453338916,175.93966431514437</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>-37.38621363217653,175.94077587494752</t>
+        </is>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>-37.381297985429775,175.9374923968043</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>-37.38195485601471,175.93785715339752</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>-37.382622750198195,175.93811838312936</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>-37.38329434800098,175.93837093604967</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>-37.38396612948515,175.9386591558602</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>-37.384657250981206,175.93893819341662</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>-37.38526702370392,175.93940632819908</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>-37.38596189201796,175.9396699193131</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>-37.386370688663575,175.94050563699042</t>
+        </is>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>-37.381299369620564,175.93748545144314</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>-37.38198785711313,175.93771057483426</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>-37.382638431182784,175.93806242300653</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>-37.38331046048339,175.9383255244513</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>-37.38397432663301,175.93863965211403</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>-37.384609547841585,175.93904606145648</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>-37.385260879112835,175.9394213635713</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>-37.38590336955009,175.93979408556075</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>-37.38630125407204,175.94062510931468</t>
+        </is>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0203/nzd0203.xlsx
+++ b/data/nzd0203/nzd0203.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K702"/>
+  <dimension ref="A1:K705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25487,6 +25487,123 @@
       <c r="K702" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>342.1971428571428</v>
+      </c>
+      <c r="C703" t="n">
+        <v>347.6171428571428</v>
+      </c>
+      <c r="D703" t="n">
+        <v>349.705</v>
+      </c>
+      <c r="E703" t="n">
+        <v>355.81</v>
+      </c>
+      <c r="F703" t="n">
+        <v>356.3853846153846</v>
+      </c>
+      <c r="G703" t="n">
+        <v>344.93</v>
+      </c>
+      <c r="H703" t="n">
+        <v>343.62</v>
+      </c>
+      <c r="I703" t="n">
+        <v>343.66</v>
+      </c>
+      <c r="J703" t="n">
+        <v>382.005</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>369.5257142857143</v>
+      </c>
+      <c r="C704" t="n">
+        <v>360.8957142857143</v>
+      </c>
+      <c r="D704" t="n">
+        <v>377.695</v>
+      </c>
+      <c r="E704" t="n">
+        <v>376.2166666666667</v>
+      </c>
+      <c r="F704" t="n">
+        <v>373.1253846153846</v>
+      </c>
+      <c r="G704" t="n">
+        <v>367.2866666666667</v>
+      </c>
+      <c r="H704" t="n">
+        <v>359.8866666666667</v>
+      </c>
+      <c r="I704" t="n">
+        <v>363.7466666666666</v>
+      </c>
+      <c r="J704" t="n">
+        <v>399.365</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>359.2971428571428</v>
+      </c>
+      <c r="C705" t="n">
+        <v>358.5171428571429</v>
+      </c>
+      <c r="D705" t="n">
+        <v>372.255</v>
+      </c>
+      <c r="E705" t="n">
+        <v>376.3966666666666</v>
+      </c>
+      <c r="F705" t="n">
+        <v>370.5192307692308</v>
+      </c>
+      <c r="G705" t="n">
+        <v>363.4366666666667</v>
+      </c>
+      <c r="H705" t="n">
+        <v>357.2266666666667</v>
+      </c>
+      <c r="I705" t="n">
+        <v>359.2366666666667</v>
+      </c>
+      <c r="J705" t="n">
+        <v>405.925</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B713"/>
+  <dimension ref="A1:B716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32639,6 +32756,36 @@
       </c>
       <c r="B713" t="n">
         <v>-0.75</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-08-27 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -32806,28 +32953,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.1942842636128946</v>
+        <v>0.1802265476429955</v>
       </c>
       <c r="J2" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K2" t="n">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01518968287987155</v>
+        <v>0.01307449485375067</v>
       </c>
       <c r="M2" t="n">
-        <v>9.116724561394477</v>
+        <v>9.143490924902849</v>
       </c>
       <c r="N2" t="n">
-        <v>139.3248652242619</v>
+        <v>140.3177725782523</v>
       </c>
       <c r="O2" t="n">
-        <v>11.80359543631778</v>
+        <v>11.84558029723543</v>
       </c>
       <c r="P2" t="n">
-        <v>366.0711968458602</v>
+        <v>366.2117003611656</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32884,28 +33031,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04680590596170898</v>
+        <v>-0.06189519622926988</v>
       </c>
       <c r="J3" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K3" t="n">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008047701302360544</v>
+        <v>0.001408197179263326</v>
       </c>
       <c r="M3" t="n">
-        <v>9.932950096963785</v>
+        <v>9.965112023111717</v>
       </c>
       <c r="N3" t="n">
-        <v>152.3802970054945</v>
+        <v>152.9713467392046</v>
       </c>
       <c r="O3" t="n">
-        <v>12.34424145119879</v>
+        <v>12.36815858320084</v>
       </c>
       <c r="P3" t="n">
-        <v>372.1870704436638</v>
+        <v>372.3398821908724</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32962,28 +33109,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01743134397611179</v>
+        <v>0.008775268121413363</v>
       </c>
       <c r="J4" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K4" t="n">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001106928612594205</v>
+        <v>2.812844019128846e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.770562363007359</v>
+        <v>9.775333610773799</v>
       </c>
       <c r="N4" t="n">
-        <v>153.5877268114009</v>
+        <v>153.9587177360657</v>
       </c>
       <c r="O4" t="n">
-        <v>12.39305155364896</v>
+        <v>12.40801022469218</v>
       </c>
       <c r="P4" t="n">
-        <v>374.921156235667</v>
+        <v>375.0090514293018</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33040,28 +33187,28 @@
         <v>0.0859</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08287734774934136</v>
+        <v>0.07398241537192728</v>
       </c>
       <c r="J5" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K5" t="n">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00268471313100993</v>
+        <v>0.002148616405677317</v>
       </c>
       <c r="M5" t="n">
-        <v>9.596156214207483</v>
+        <v>9.593865535619754</v>
       </c>
       <c r="N5" t="n">
-        <v>144.8901871152612</v>
+        <v>145.0560995647598</v>
       </c>
       <c r="O5" t="n">
-        <v>12.0370339833059</v>
+        <v>12.0439237611652</v>
       </c>
       <c r="P5" t="n">
-        <v>376.4918874718564</v>
+        <v>376.581385335262</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33118,28 +33265,28 @@
         <v>0.0751</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07223029773981111</v>
+        <v>-0.07773151880738048</v>
       </c>
       <c r="J6" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K6" t="n">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002169077769029082</v>
+        <v>0.002528546613572713</v>
       </c>
       <c r="M6" t="n">
-        <v>9.24732866241742</v>
+        <v>9.23170468376648</v>
       </c>
       <c r="N6" t="n">
-        <v>135.4582340665356</v>
+        <v>135.2082724304811</v>
       </c>
       <c r="O6" t="n">
-        <v>11.6386525881021</v>
+        <v>11.62790920288257</v>
       </c>
       <c r="P6" t="n">
-        <v>374.3150582249549</v>
+        <v>374.3702661162048</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33196,28 +33343,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1234015742487204</v>
+        <v>-0.1298365471527782</v>
       </c>
       <c r="J7" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K7" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006085712348560701</v>
+        <v>0.006764222257854002</v>
       </c>
       <c r="M7" t="n">
-        <v>9.397325112565953</v>
+        <v>9.393812082190895</v>
       </c>
       <c r="N7" t="n">
-        <v>137.9820853640396</v>
+        <v>137.997170299634</v>
       </c>
       <c r="O7" t="n">
-        <v>11.74657760218012</v>
+        <v>11.74721968380748</v>
       </c>
       <c r="P7" t="n">
-        <v>368.5660461896997</v>
+        <v>368.6317796837196</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33274,28 +33421,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1211919367145461</v>
+        <v>-0.1277357143078229</v>
       </c>
       <c r="J8" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K8" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005607439998050134</v>
+        <v>0.006265794053983531</v>
       </c>
       <c r="M8" t="n">
-        <v>9.617539700268797</v>
+        <v>9.606928888564795</v>
       </c>
       <c r="N8" t="n">
-        <v>145.1851690420188</v>
+        <v>144.9413742310363</v>
       </c>
       <c r="O8" t="n">
-        <v>12.04928085165329</v>
+        <v>12.03916003012819</v>
       </c>
       <c r="P8" t="n">
-        <v>363.6233989717859</v>
+        <v>363.690111751157</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33352,28 +33499,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2562646428415257</v>
+        <v>-0.2614295614813026</v>
       </c>
       <c r="J9" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K9" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02285331073555252</v>
+        <v>0.02391379429914975</v>
       </c>
       <c r="M9" t="n">
-        <v>9.910815590628447</v>
+        <v>9.898915012643551</v>
       </c>
       <c r="N9" t="n">
-        <v>156.0336832395847</v>
+        <v>155.7662989762301</v>
       </c>
       <c r="O9" t="n">
-        <v>12.49134433276037</v>
+        <v>12.48063696195952</v>
       </c>
       <c r="P9" t="n">
-        <v>367.6703959576563</v>
+        <v>367.7231115783731</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33430,28 +33577,28 @@
         <v>0.094</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002999576187731478</v>
+        <v>0.009088075035695631</v>
       </c>
       <c r="J10" t="n">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K10" t="n">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="L10" t="n">
-        <v>1.610947762853421e-06</v>
+        <v>1.491137545750476e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>14.50272498371353</v>
+        <v>14.48358044734382</v>
       </c>
       <c r="N10" t="n">
-        <v>304.9929244497948</v>
+        <v>304.1057808353833</v>
       </c>
       <c r="O10" t="n">
-        <v>17.46404662298503</v>
+        <v>17.43862898382162</v>
       </c>
       <c r="P10" t="n">
-        <v>389.6822314794712</v>
+        <v>389.6197265620838</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33489,7 +33636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K702"/>
+  <dimension ref="A1:K705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68827,6 +68974,177 @@
         </is>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>-37.38134949327047,175.9372339478375</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>-37.38203656887113,175.93749421369486</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>-37.38272016286559,175.93777074843322</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>-37.383374715092195,175.93814442788178</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>-37.38401682648735,175.938538530612</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>-37.38469943864061,175.938842796884</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>-37.385330960187645,175.93924987980915</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>-37.3859869163282,175.93961682546686</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>-37.38637994129826,175.94048971645375</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>-37.38128985485958,175.9375331929741</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>-37.382004095573116,175.9376384493158</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>-37.382636640776724,175.93806881236532</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>-37.38330004408864,175.938354882141</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>-37.38394656802389,175.93870569904752</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>-37.384601835000616,175.93906350197435</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>-37.385264177212065,175.9394132933607</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>-37.38589491103557,175.93981203182688</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>-37.38628789207592,175.94064810052657</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>-37.38131217648409,175.93742119119636</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>-37.38200991248091,175.93761261260616</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>-37.38265287377966,175.93801088216728</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>-37.383299385440495,175.93835673848176</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>-37.38395750617271,175.93867967358128</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>-37.38461864316976,175.93902549480327</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>-37.38527509788544,175.93938657124727</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>-37.385915568738895,175.93976820276166</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>-37.3862531084475,175.94070795062646</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0203/nzd0203.xlsx
+++ b/data/nzd0203/nzd0203.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K705"/>
+  <dimension ref="A1:K706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25602,6 +25602,45 @@
         <v>405.925</v>
       </c>
       <c r="K705" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>365.1685714285715</v>
+      </c>
+      <c r="C706" t="n">
+        <v>360.5985714285715</v>
+      </c>
+      <c r="D706" t="n">
+        <v>374.88</v>
+      </c>
+      <c r="E706" t="n">
+        <v>376.43</v>
+      </c>
+      <c r="F706" t="n">
+        <v>370.3792307692308</v>
+      </c>
+      <c r="G706" t="n">
+        <v>366.66</v>
+      </c>
+      <c r="H706" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="I706" t="n">
+        <v>364.36</v>
+      </c>
+      <c r="J706" t="n">
+        <v>399.23</v>
+      </c>
+      <c r="K706" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -25618,7 +25657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B716"/>
+  <dimension ref="A1:B717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32786,6 +32825,16 @@
       </c>
       <c r="B716" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -33636,7 +33685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K705"/>
+  <dimension ref="A1:K706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69145,6 +69194,63 @@
         </is>
       </c>
     </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>-37.38129936338548,175.93748548272856</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>-37.38200482225018,175.93763522166705</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>-37.38264504076235,175.93803883562094</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>-37.38329926346862,175.93835708224856</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>-37.38395809375907,175.9386782755188</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>-37.38460457087657,175.93905731552692</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>-37.38524215794215,175.93946717288566</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>-37.38589210170889,175.9398179923187</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>-37.38628860789726,175.9406468688547</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0203/nzd0203.xlsx
+++ b/data/nzd0203/nzd0203.xlsx
@@ -33002,28 +33002,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.1802265476429955</v>
+        <v>0.1783242203040683</v>
       </c>
       <c r="J2" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K2" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01307449485375067</v>
+        <v>0.01284274337643287</v>
       </c>
       <c r="M2" t="n">
-        <v>9.143490924902849</v>
+        <v>9.137353455468409</v>
       </c>
       <c r="N2" t="n">
-        <v>140.3177725782523</v>
+        <v>140.1241866111494</v>
       </c>
       <c r="O2" t="n">
-        <v>11.84558029723543</v>
+        <v>11.83740624508382</v>
       </c>
       <c r="P2" t="n">
-        <v>366.2117003611656</v>
+        <v>366.2307622847352</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33080,28 +33080,28 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06189519622926988</v>
+        <v>-0.06522414363177625</v>
       </c>
       <c r="J3" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K3" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001408197179263326</v>
+        <v>0.001567064088033754</v>
       </c>
       <c r="M3" t="n">
-        <v>9.965112023111717</v>
+        <v>9.966204699270333</v>
       </c>
       <c r="N3" t="n">
-        <v>152.9713467392046</v>
+        <v>152.8814692880697</v>
       </c>
       <c r="O3" t="n">
-        <v>12.36815858320084</v>
+        <v>12.36452462847115</v>
       </c>
       <c r="P3" t="n">
-        <v>372.3398821908724</v>
+        <v>372.373673882896</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33158,28 +33158,28 @@
         <v>0.09470000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008775268121413363</v>
+        <v>0.008658328263482356</v>
       </c>
       <c r="J4" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K4" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L4" t="n">
-        <v>2.812844019128846e-05</v>
+        <v>2.747770839184316e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.775333610773799</v>
+        <v>9.758722033421249</v>
       </c>
       <c r="N4" t="n">
-        <v>153.9587177360657</v>
+        <v>153.6869303333185</v>
       </c>
       <c r="O4" t="n">
-        <v>12.40801022469218</v>
+        <v>12.39705329234808</v>
       </c>
       <c r="P4" t="n">
-        <v>375.0090514293018</v>
+        <v>375.0102424719611</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33236,28 +33236,28 @@
         <v>0.0859</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07398241537192728</v>
+        <v>0.07331089466690995</v>
       </c>
       <c r="J5" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K5" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002148616405677317</v>
+        <v>0.002116921868252408</v>
       </c>
       <c r="M5" t="n">
-        <v>9.593865535619754</v>
+        <v>9.580598485903002</v>
       </c>
       <c r="N5" t="n">
-        <v>145.0560995647598</v>
+        <v>144.8073937127268</v>
       </c>
       <c r="O5" t="n">
-        <v>12.0439237611652</v>
+        <v>12.03359438043043</v>
       </c>
       <c r="P5" t="n">
-        <v>376.581385335262</v>
+        <v>376.5881621033495</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33314,28 +33314,28 @@
         <v>0.0751</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07773151880738048</v>
+        <v>-0.07835832639893003</v>
       </c>
       <c r="J6" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K6" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002528546613572713</v>
+        <v>0.002577939404220242</v>
       </c>
       <c r="M6" t="n">
-        <v>9.23170468376648</v>
+        <v>9.219281529236437</v>
       </c>
       <c r="N6" t="n">
-        <v>135.2082724304811</v>
+        <v>134.9837383403569</v>
       </c>
       <c r="O6" t="n">
-        <v>11.62790920288257</v>
+        <v>11.61825022713648</v>
       </c>
       <c r="P6" t="n">
-        <v>374.3702661162048</v>
+        <v>374.3765752506654</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33392,28 +33392,28 @@
         <v>0.0902</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1298365471527782</v>
+        <v>-0.1293931714385546</v>
       </c>
       <c r="J7" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K7" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006764222257854002</v>
+        <v>0.006740250932654956</v>
       </c>
       <c r="M7" t="n">
-        <v>9.393812082190895</v>
+        <v>9.380061347362513</v>
       </c>
       <c r="N7" t="n">
-        <v>137.997170299634</v>
+        <v>137.7670021485314</v>
       </c>
       <c r="O7" t="n">
-        <v>11.74721968380748</v>
+        <v>11.73741888783609</v>
       </c>
       <c r="P7" t="n">
-        <v>368.6317796837196</v>
+        <v>368.6272366402391</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33470,28 +33470,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1277357143078229</v>
+        <v>-0.1261909056414879</v>
       </c>
       <c r="J8" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K8" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006265794053983531</v>
+        <v>0.006134469777910878</v>
       </c>
       <c r="M8" t="n">
-        <v>9.606928888564795</v>
+        <v>9.598018662629251</v>
       </c>
       <c r="N8" t="n">
-        <v>144.9413742310363</v>
+        <v>144.7345244014161</v>
       </c>
       <c r="O8" t="n">
-        <v>12.03916003012819</v>
+        <v>12.03056625439618</v>
       </c>
       <c r="P8" t="n">
-        <v>363.690111751157</v>
+        <v>363.6743182036544</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33548,28 +33548,28 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2614295614813026</v>
+        <v>-0.2603453534693612</v>
       </c>
       <c r="J9" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K9" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02391379429914975</v>
+        <v>0.02379390700896844</v>
       </c>
       <c r="M9" t="n">
-        <v>9.898915012643551</v>
+        <v>9.887631818957688</v>
       </c>
       <c r="N9" t="n">
-        <v>155.7662989762301</v>
+        <v>155.522230491367</v>
       </c>
       <c r="O9" t="n">
-        <v>12.48063696195952</v>
+        <v>12.47085524298021</v>
       </c>
       <c r="P9" t="n">
-        <v>367.7231115783731</v>
+        <v>367.7120109294594</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33626,28 +33626,28 @@
         <v>0.094</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009088075035695631</v>
+        <v>0.0122430091441088</v>
       </c>
       <c r="J10" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K10" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L10" t="n">
-        <v>1.491137545750476e-05</v>
+        <v>2.714358777289316e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>14.48358044734382</v>
+        <v>14.4737173573463</v>
       </c>
       <c r="N10" t="n">
-        <v>304.1057808353833</v>
+        <v>303.7242616287569</v>
       </c>
       <c r="O10" t="n">
-        <v>17.43862898382162</v>
+        <v>17.42768664019287</v>
       </c>
       <c r="P10" t="n">
-        <v>389.6197265620838</v>
+        <v>389.5873190751034</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0203/nzd0203.xlsx
+++ b/data/nzd0203/nzd0203.xlsx
@@ -32998,9 +32998,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0701</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0895</v>
+      </c>
       <c r="I2" t="n">
         <v>0.1783224642578963</v>
       </c>
@@ -33071,13 +33077,13 @@
         <v>0.1251465133673647</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0594</v>
+        <v>0.0721</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="I3" t="n">
         <v>-0.06522483152249604</v>
@@ -33149,13 +33155,13 @@
         <v>0.2500471705917041</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0659</v>
+        <v>0.0856</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09470000000000001</v>
+        <v>0.1098</v>
       </c>
       <c r="I4" t="n">
         <v>0.008667741729823385</v>
@@ -33227,13 +33233,13 @@
         <v>0.3751936839601642</v>
       </c>
       <c r="F5" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0664</v>
+        <v>0.0827</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0859</v>
+        <v>0.1115</v>
       </c>
       <c r="I5" t="n">
         <v>0.07328773703978794</v>
@@ -33305,13 +33311,13 @@
         <v>0.5001544135982972</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0601</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0751</v>
+        <v>0.1089</v>
       </c>
       <c r="I6" t="n">
         <v>-0.07836830333107291</v>
@@ -33383,13 +33389,13 @@
         <v>0.6252984124795307</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0659</v>
+        <v>0.0867</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0902</v>
+        <v>0.1321</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1294098832192483</v>
@@ -33461,13 +33467,13 @@
         <v>0.7504374815089523</v>
       </c>
       <c r="F8" t="n">
-        <v>0.075</v>
+        <v>0.12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0965</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.153</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1262060920583917</v>
@@ -33539,13 +33545,13 @@
         <v>0.8748534866342411</v>
       </c>
       <c r="F9" t="n">
-        <v>0.075</v>
+        <v>0.11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0673</v>
+        <v>0.0921</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I9" t="n">
         <v>-0.260360505443147</v>
@@ -33617,13 +33623,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1773</v>
       </c>
       <c r="H10" t="n">
-        <v>0.094</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>0.01226922273808063</v>
